--- a/Code/Results/Cases/Case_3_178/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_178/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.901423501437847</v>
+        <v>0.8565037349179647</v>
       </c>
       <c r="C2">
-        <v>0.3238504348926341</v>
+        <v>0.2229358539446622</v>
       </c>
       <c r="D2">
-        <v>0.09705274940110087</v>
+        <v>0.2244905153702703</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5497919912031222</v>
+        <v>1.145823997902674</v>
       </c>
       <c r="G2">
-        <v>0.3354789250289727</v>
+        <v>0.5768687689673087</v>
       </c>
       <c r="H2">
-        <v>0.2819083087928149</v>
+        <v>0.7084526726602576</v>
       </c>
       <c r="I2">
-        <v>0.266124202540837</v>
+        <v>0.6966241759819667</v>
       </c>
       <c r="J2">
-        <v>0.07634515753261573</v>
+        <v>0.2038826977212298</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2163948883726547</v>
+        <v>0.3593375116489455</v>
       </c>
       <c r="M2">
-        <v>0.3616543383345174</v>
+        <v>0.2513020702240922</v>
       </c>
       <c r="N2">
-        <v>0.8571934035852209</v>
+        <v>1.373030149162062</v>
       </c>
       <c r="O2">
-        <v>1.25042588955057</v>
+        <v>2.548315283167838</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.655361866971276</v>
+        <v>0.7821304483655354</v>
       </c>
       <c r="C3">
-        <v>0.2979038322989567</v>
+        <v>0.214227664950613</v>
       </c>
       <c r="D3">
-        <v>0.09327306437368321</v>
+        <v>0.2245180620644192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5307823630877238</v>
+        <v>1.149413113869535</v>
       </c>
       <c r="G3">
-        <v>0.3182897237416498</v>
+        <v>0.5775698648004237</v>
       </c>
       <c r="H3">
-        <v>0.279027520327169</v>
+        <v>0.7123414329255056</v>
       </c>
       <c r="I3">
-        <v>0.2704696867380108</v>
+        <v>0.7032449779789083</v>
       </c>
       <c r="J3">
-        <v>0.07870727525163135</v>
+        <v>0.2053060457209499</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.199340544358229</v>
+        <v>0.3562826254698521</v>
       </c>
       <c r="M3">
-        <v>0.3167211363661835</v>
+        <v>0.2386276408061363</v>
       </c>
       <c r="N3">
-        <v>0.8679730729862527</v>
+        <v>1.380020107007745</v>
       </c>
       <c r="O3">
-        <v>1.207619957978324</v>
+        <v>2.557686944664198</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.50425125242154</v>
+        <v>0.7365120258808133</v>
       </c>
       <c r="C4">
-        <v>0.2819288325458729</v>
+        <v>0.2088448940521772</v>
       </c>
       <c r="D4">
-        <v>0.09103571874940997</v>
+        <v>0.2246034941234001</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5200578664897577</v>
+        <v>1.152191864381052</v>
       </c>
       <c r="G4">
-        <v>0.3084333705796567</v>
+        <v>0.5783677391285522</v>
       </c>
       <c r="H4">
-        <v>0.2777090964807272</v>
+        <v>0.715023352509256</v>
       </c>
       <c r="I4">
-        <v>0.2737135248063147</v>
+        <v>0.7076538591183521</v>
       </c>
       <c r="J4">
-        <v>0.08022249018452854</v>
+        <v>0.2062279712715527</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1890263408066986</v>
+        <v>0.3545290421768144</v>
       </c>
       <c r="M4">
-        <v>0.2891906765938259</v>
+        <v>0.2309023543659094</v>
       </c>
       <c r="N4">
-        <v>0.8754616164301936</v>
+        <v>1.384764739322243</v>
       </c>
       <c r="O4">
-        <v>1.183750110218881</v>
+        <v>2.564826784487551</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.442654386969053</v>
+        <v>0.7179355350510264</v>
       </c>
       <c r="C5">
-        <v>0.2754071092235222</v>
+        <v>0.2066425043104374</v>
       </c>
       <c r="D5">
-        <v>0.09014441373925308</v>
+        <v>0.2246555967020498</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5159161005162289</v>
+        <v>1.153468965172628</v>
       </c>
       <c r="G5">
-        <v>0.30458364197127</v>
+        <v>0.5787852742636375</v>
       </c>
       <c r="H5">
-        <v>0.2772812360649155</v>
+        <v>0.7161903214237313</v>
       </c>
       <c r="I5">
-        <v>0.2751753023610704</v>
+        <v>0.7095369546016563</v>
       </c>
       <c r="J5">
-        <v>0.0808561260164371</v>
+        <v>0.2066157481423536</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.184860909075681</v>
+        <v>0.3538452965279859</v>
       </c>
       <c r="M5">
-        <v>0.2779840432529568</v>
+        <v>0.2277688282069619</v>
       </c>
       <c r="N5">
-        <v>0.8787265248986884</v>
+        <v>1.386812272387232</v>
       </c>
       <c r="O5">
-        <v>1.17460330941509</v>
+        <v>2.568084939028353</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.43242487293864</v>
+        <v>0.7148517770191916</v>
       </c>
       <c r="C6">
-        <v>0.2743234484359789</v>
+        <v>0.2062762684131911</v>
       </c>
       <c r="D6">
-        <v>0.0899976318932687</v>
+        <v>0.2246652941981964</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5152418912828551</v>
+        <v>1.153689772805379</v>
       </c>
       <c r="G6">
-        <v>0.3039542258318875</v>
+        <v>0.5788601863537366</v>
       </c>
       <c r="H6">
-        <v>0.2772166886994754</v>
+        <v>0.7163885715514908</v>
       </c>
       <c r="I6">
-        <v>0.2754263392283818</v>
+        <v>0.7098548625318273</v>
       </c>
       <c r="J6">
-        <v>0.08096231365738449</v>
+        <v>0.2066808686355173</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1841714663288414</v>
+        <v>0.3537336287934494</v>
       </c>
       <c r="M6">
-        <v>0.2761238597222899</v>
+        <v>0.2272493984082757</v>
       </c>
       <c r="N6">
-        <v>0.8792813866858253</v>
+        <v>1.387159158511707</v>
       </c>
       <c r="O6">
-        <v>1.173118789313619</v>
+        <v>2.568647014017003</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.503420622837524</v>
+        <v>0.7362614405733723</v>
       </c>
       <c r="C7">
-        <v>0.2818409270137892</v>
+        <v>0.2088152275402848</v>
       </c>
       <c r="D7">
-        <v>0.09102361626806044</v>
+        <v>0.2246041267187806</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5200010963141466</v>
+        <v>1.152208501581164</v>
       </c>
       <c r="G7">
-        <v>0.3083807875678133</v>
+        <v>0.5783729960375652</v>
       </c>
       <c r="H7">
-        <v>0.2777028881822972</v>
+        <v>0.7150387906616942</v>
       </c>
       <c r="I7">
-        <v>0.2737326787565983</v>
+        <v>0.7076789051824264</v>
       </c>
       <c r="J7">
-        <v>0.08023097031147897</v>
+        <v>0.2062331520106495</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1889700141112343</v>
+        <v>0.3545196958273493</v>
       </c>
       <c r="M7">
-        <v>0.2890394936222833</v>
+        <v>0.2308600350718919</v>
       </c>
       <c r="N7">
-        <v>0.8755047916332046</v>
+        <v>1.384791890983806</v>
       </c>
       <c r="O7">
-        <v>1.183624437589188</v>
+        <v>2.564869313330036</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.816580261686227</v>
+        <v>0.8308509606938799</v>
       </c>
       <c r="C8">
-        <v>0.3149126046764792</v>
+        <v>0.2199408178607314</v>
       </c>
       <c r="D8">
-        <v>0.09573187243466919</v>
+        <v>0.2244858274229102</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5430348522976374</v>
+        <v>1.146942264709971</v>
       </c>
       <c r="G8">
-        <v>0.3294019059028201</v>
+        <v>0.5770342574707072</v>
       </c>
       <c r="H8">
-        <v>0.2808191674846299</v>
+        <v>0.709732505314534</v>
       </c>
       <c r="I8">
-        <v>0.2675000482328294</v>
+        <v>0.698835708946234</v>
       </c>
       <c r="J8">
-        <v>0.07714606945111946</v>
+        <v>0.2043635203763339</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2104807730121721</v>
+        <v>0.3582589234073978</v>
       </c>
       <c r="M8">
-        <v>0.3461476174554505</v>
+        <v>0.2469202955019725</v>
       </c>
       <c r="N8">
-        <v>0.8607263547074027</v>
+        <v>1.375346435303086</v>
       </c>
       <c r="O8">
-        <v>1.235149275998211</v>
+        <v>2.5512591610578</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.431028726534521</v>
+        <v>1.016655221112899</v>
       </c>
       <c r="C9">
-        <v>0.3794618828018486</v>
+        <v>0.2414669846104971</v>
       </c>
       <c r="D9">
-        <v>0.1056524138067729</v>
+        <v>0.2247950695875574</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5961814161897294</v>
+        <v>1.141172263458103</v>
       </c>
       <c r="G9">
-        <v>0.3765725144666305</v>
+        <v>0.577324493498395</v>
       </c>
       <c r="H9">
-        <v>0.2906859325143927</v>
+        <v>0.7016577814431315</v>
       </c>
       <c r="I9">
-        <v>0.2600746185460068</v>
+        <v>0.6842203671553939</v>
       </c>
       <c r="J9">
-        <v>0.07161748125659839</v>
+        <v>0.2010770297527076</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2540006424741108</v>
+        <v>0.3665549182766483</v>
       </c>
       <c r="M9">
-        <v>0.4587280450109716</v>
+        <v>0.2788544392372714</v>
       </c>
       <c r="N9">
-        <v>0.8389048793207081</v>
+        <v>1.360407855259375</v>
       </c>
       <c r="O9">
-        <v>1.356589556804238</v>
+        <v>2.535557535556848</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.883552122493427</v>
+        <v>1.15329128476418</v>
       </c>
       <c r="C10">
-        <v>0.4267694104386806</v>
+        <v>0.2570979307828054</v>
       </c>
       <c r="D10">
-        <v>0.1133987379966968</v>
+        <v>0.2253491633893674</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6407635494628892</v>
+        <v>1.139705162915945</v>
       </c>
       <c r="G10">
-        <v>0.4154560175489763</v>
+        <v>0.5793167163773205</v>
       </c>
       <c r="H10">
-        <v>0.3004909123640545</v>
+        <v>0.6971418720759459</v>
       </c>
       <c r="I10">
-        <v>0.2578752111292459</v>
+        <v>0.6751433160612024</v>
       </c>
       <c r="J10">
-        <v>0.06788185239530398</v>
+        <v>0.198892741376862</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.286924356823036</v>
+        <v>0.3732306256530507</v>
       </c>
       <c r="M10">
-        <v>0.5419949652584322</v>
+        <v>0.3025721102257464</v>
       </c>
       <c r="N10">
-        <v>0.8276127211503166</v>
+        <v>1.35160632930635</v>
       </c>
       <c r="O10">
-        <v>1.460080781209427</v>
+        <v>2.530714700192732</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.089864712921099</v>
+        <v>1.215464647482293</v>
       </c>
       <c r="C11">
-        <v>0.4482824120024986</v>
+        <v>0.2641674543434362</v>
       </c>
       <c r="D11">
-        <v>0.1170311119282488</v>
+        <v>0.2256715844046866</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6624041775612426</v>
+        <v>1.139638494165418</v>
       </c>
       <c r="G11">
-        <v>0.4342037273557224</v>
+        <v>0.5806097307501403</v>
       </c>
       <c r="H11">
-        <v>0.3055688187367025</v>
+        <v>0.6953941672856843</v>
       </c>
       <c r="I11">
-        <v>0.2576589314341646</v>
+        <v>0.6713743466166022</v>
       </c>
       <c r="J11">
-        <v>0.06625523287077772</v>
+        <v>0.1979487870947789</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3021401213938191</v>
+        <v>0.376392303643911</v>
       </c>
       <c r="M11">
-        <v>0.5800418420645386</v>
+        <v>0.3134148805971648</v>
       </c>
       <c r="N11">
-        <v>0.8235928925119254</v>
+        <v>1.34807208651992</v>
       </c>
       <c r="O11">
-        <v>1.510689075313735</v>
+        <v>2.529963994271128</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.168073671927516</v>
+        <v>1.239009109012329</v>
       </c>
       <c r="C12">
-        <v>0.4564291970055478</v>
+        <v>0.2668384451109205</v>
       </c>
       <c r="D12">
-        <v>0.1184229749854353</v>
+        <v>0.2258037381690414</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6708082802538016</v>
+        <v>1.139699509543661</v>
       </c>
       <c r="G12">
-        <v>0.4414677187622686</v>
+        <v>0.5811549853246021</v>
       </c>
       <c r="H12">
-        <v>0.307586001461587</v>
+        <v>0.6947763692590456</v>
       </c>
       <c r="I12">
-        <v>0.2576966289225489</v>
+        <v>0.6699989230922831</v>
       </c>
       <c r="J12">
-        <v>0.06564991268077991</v>
+        <v>0.1975984621570195</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.307938982465771</v>
+        <v>0.3776073714457482</v>
       </c>
       <c r="M12">
-        <v>0.5944773601620597</v>
+        <v>0.3175281804295906</v>
       </c>
       <c r="N12">
-        <v>0.8222391157493547</v>
+        <v>1.346801111567657</v>
       </c>
       <c r="O12">
-        <v>1.530398462125788</v>
+        <v>2.529888431416765</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.151226002634132</v>
+        <v>1.233938380898167</v>
       </c>
       <c r="C13">
-        <v>0.4546746059723148</v>
+        <v>0.2662634728985154</v>
       </c>
       <c r="D13">
-        <v>0.1181224722057621</v>
+        <v>0.2257748299948616</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6689887724342611</v>
+        <v>1.139682534241651</v>
       </c>
       <c r="G13">
-        <v>0.4398957621177431</v>
+        <v>0.5810350812999019</v>
       </c>
       <c r="H13">
-        <v>0.3071472806601179</v>
+        <v>0.6949074664314736</v>
       </c>
       <c r="I13">
-        <v>0.2576830781487054</v>
+        <v>0.6702928411382771</v>
       </c>
       <c r="J13">
-        <v>0.06577980271608608</v>
+        <v>0.197673594030185</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.306688404923193</v>
+        <v>0.3773448951284024</v>
       </c>
       <c r="M13">
-        <v>0.5913671050166016</v>
+        <v>0.316641984552561</v>
       </c>
       <c r="N13">
-        <v>0.8225230549471831</v>
+        <v>1.347071845214217</v>
       </c>
       <c r="O13">
-        <v>1.526128826212442</v>
+        <v>2.529895424741596</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.096297248114638</v>
+        <v>1.217401658898439</v>
       </c>
       <c r="C14">
-        <v>0.4489526391863023</v>
+        <v>0.2643873213214079</v>
       </c>
       <c r="D14">
-        <v>0.1171452889502262</v>
+        <v>0.2256822554900566</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6630913128001623</v>
+        <v>1.139641785831564</v>
       </c>
       <c r="G14">
-        <v>0.4347979675989393</v>
+        <v>0.5806534744783818</v>
       </c>
       <c r="H14">
-        <v>0.3057328512818884</v>
+        <v>0.6953424588451327</v>
       </c>
       <c r="I14">
-        <v>0.257659595445066</v>
+        <v>0.6712601514602063</v>
       </c>
       <c r="J14">
-        <v>0.0662052183733266</v>
+        <v>0.197919822840825</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3026164401358074</v>
+        <v>0.3764919119238357</v>
       </c>
       <c r="M14">
-        <v>0.5812288772102221</v>
+        <v>0.3137531381742846</v>
       </c>
       <c r="N14">
-        <v>0.8234780942389079</v>
+        <v>1.34796617345593</v>
       </c>
       <c r="O14">
-        <v>1.512299430135158</v>
+        <v>2.529953595496352</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.062663118951662</v>
+        <v>1.207272488232206</v>
       </c>
       <c r="C15">
-        <v>0.4454478475748544</v>
+        <v>0.2632373266568777</v>
       </c>
       <c r="D15">
-        <v>0.1165488899070724</v>
+        <v>0.2256268593145592</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6595066214478678</v>
+        <v>1.139628056402181</v>
       </c>
       <c r="G15">
-        <v>0.4316972398220145</v>
+        <v>0.5804269725274054</v>
       </c>
       <c r="H15">
-        <v>0.304878920120359</v>
+        <v>0.6956146348786518</v>
       </c>
       <c r="I15">
-        <v>0.2576609958997267</v>
+        <v>0.6718594033883392</v>
       </c>
       <c r="J15">
-        <v>0.06646718973456434</v>
+        <v>0.1980715731924776</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3001271422684368</v>
+        <v>0.3759717499876558</v>
       </c>
       <c r="M15">
-        <v>0.5750226821139961</v>
+        <v>0.3119845879104872</v>
       </c>
       <c r="N15">
-        <v>0.8240852594581156</v>
+        <v>1.348522743572502</v>
       </c>
       <c r="O15">
-        <v>1.50390067022164</v>
+        <v>2.530016403499957</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.870079745921203</v>
+        <v>1.149228306658188</v>
       </c>
       <c r="C16">
-        <v>0.4253634480641892</v>
+        <v>0.2566350790698095</v>
       </c>
       <c r="D16">
-        <v>0.113163601375966</v>
+        <v>0.2253295033098297</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6393778032701789</v>
+        <v>1.13972159756058</v>
       </c>
       <c r="G16">
-        <v>0.414253163523</v>
+        <v>0.5792399975478304</v>
       </c>
       <c r="H16">
-        <v>0.3001719477335456</v>
+        <v>0.6972622524221492</v>
       </c>
       <c r="I16">
-        <v>0.2579057012363002</v>
+        <v>0.6753968760425693</v>
       </c>
       <c r="J16">
-        <v>0.06798963516490364</v>
+        <v>0.1989554295835929</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.285934996656934</v>
+        <v>0.3730265026436115</v>
       </c>
       <c r="M16">
-        <v>0.5395122173398477</v>
+        <v>0.3018645591527118</v>
       </c>
       <c r="N16">
-        <v>0.8278985622132566</v>
+        <v>1.351846736143784</v>
       </c>
       <c r="O16">
-        <v>1.456847596249958</v>
+        <v>2.530792974075695</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.752065006259954</v>
+        <v>1.113623224586433</v>
       </c>
       <c r="C17">
-        <v>0.4130413371118209</v>
+        <v>0.25257416751694</v>
       </c>
       <c r="D17">
-        <v>0.1111151586185528</v>
+        <v>0.2251650649441856</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6273872533625422</v>
+        <v>1.13993275514138</v>
       </c>
       <c r="G17">
-        <v>0.4038316525761729</v>
+        <v>0.5786108847753866</v>
       </c>
       <c r="H17">
-        <v>0.2974463477835911</v>
+        <v>0.6983514918004659</v>
       </c>
       <c r="I17">
-        <v>0.2582614204821994</v>
+        <v>0.6776592660077263</v>
       </c>
       <c r="J17">
-        <v>0.06894236553007982</v>
+        <v>0.1995103626348311</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2772915354624246</v>
+        <v>0.3712515655159194</v>
       </c>
       <c r="M17">
-        <v>0.5177734236357452</v>
+        <v>0.2956697249292262</v>
       </c>
       <c r="N17">
-        <v>0.8305294233415452</v>
+        <v>1.354006059859884</v>
       </c>
       <c r="O17">
-        <v>1.428912118235246</v>
+        <v>2.531641258883781</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.684228009031301</v>
+        <v>1.093145816897561</v>
       </c>
       <c r="C18">
-        <v>0.405953197798965</v>
+        <v>0.250234583320065</v>
       </c>
       <c r="D18">
-        <v>0.109947116493359</v>
+        <v>0.2250771105109806</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6206177490719043</v>
+        <v>1.140110757594819</v>
       </c>
       <c r="G18">
-        <v>0.3979364136025367</v>
+        <v>0.5782854375309938</v>
       </c>
       <c r="H18">
-        <v>0.2959364364821937</v>
+        <v>0.6990068567548775</v>
       </c>
       <c r="I18">
-        <v>0.2585394067991622</v>
+        <v>0.6789944389323033</v>
       </c>
       <c r="J18">
-        <v>0.06949718558538631</v>
+        <v>0.199834223356298</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2723423340807045</v>
+        <v>0.3702424302870071</v>
       </c>
       <c r="M18">
-        <v>0.5052854472413628</v>
+        <v>0.2921116728720321</v>
       </c>
       <c r="N18">
-        <v>0.8321472716454679</v>
+        <v>1.355292257761896</v>
       </c>
       <c r="O18">
-        <v>1.413174217166784</v>
+        <v>2.532265877383281</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.661266273717956</v>
+        <v>1.086212860531646</v>
       </c>
       <c r="C19">
-        <v>0.4035531013640252</v>
+        <v>0.2494417835979448</v>
       </c>
       <c r="D19">
-        <v>0.1095533615157862</v>
+        <v>0.2250484704657509</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6183471434763135</v>
+        <v>1.140180742414913</v>
       </c>
       <c r="G19">
-        <v>0.3959570167294117</v>
+        <v>0.5781814985536187</v>
       </c>
       <c r="H19">
-        <v>0.2954349686955879</v>
+        <v>0.6992337114839131</v>
       </c>
       <c r="I19">
-        <v>0.2586459305031283</v>
+        <v>0.6794523288381562</v>
       </c>
       <c r="J19">
-        <v>0.06968620646208024</v>
+        <v>0.1999446809334136</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2706703689569565</v>
+        <v>0.3699027789786982</v>
       </c>
       <c r="M19">
-        <v>0.5010598017189452</v>
+        <v>0.2909078549287258</v>
       </c>
       <c r="N19">
-        <v>0.8327127893341029</v>
+        <v>1.355735340785245</v>
       </c>
       <c r="O19">
-        <v>1.407901176940044</v>
+        <v>2.532500846020838</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.764623414323808</v>
+        <v>1.117413283202097</v>
       </c>
       <c r="C20">
-        <v>0.4143531189359351</v>
+        <v>0.2530068587838343</v>
       </c>
       <c r="D20">
-        <v>0.1113321611617337</v>
+        <v>0.2251818843258704</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6286504123332293</v>
+        <v>1.13990442520268</v>
       </c>
       <c r="G20">
-        <v>0.4049307136627078</v>
+        <v>0.5786740874160188</v>
       </c>
       <c r="H20">
-        <v>0.2977304736766371</v>
+        <v>0.6982325536725824</v>
       </c>
       <c r="I20">
-        <v>0.2582159101588104</v>
+        <v>0.6774149215600396</v>
       </c>
       <c r="J20">
-        <v>0.06884023706476539</v>
+        <v>0.1994508050291923</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2782093210239083</v>
+        <v>0.3714392943773532</v>
       </c>
       <c r="M20">
-        <v>0.5200859139238148</v>
+        <v>0.2963286549342996</v>
       </c>
       <c r="N20">
-        <v>0.830238477927395</v>
+        <v>1.353771621586169</v>
       </c>
       <c r="O20">
-        <v>1.431851494550131</v>
+        <v>2.531536809731051</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.112428763666514</v>
+        <v>1.222258887773251</v>
       </c>
       <c r="C21">
-        <v>0.4506333006474961</v>
+        <v>0.264938559065115</v>
       </c>
       <c r="D21">
-        <v>0.1174318610790976</v>
+        <v>0.2257091743037734</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6648177470442889</v>
+        <v>1.139651414493486</v>
       </c>
       <c r="G21">
-        <v>0.436290743464582</v>
+        <v>0.5807640521591395</v>
       </c>
       <c r="H21">
-        <v>0.3061456991399041</v>
+        <v>0.6952134968973951</v>
       </c>
       <c r="I21">
-        <v>0.2576631907280884</v>
+        <v>0.6709746230163667</v>
       </c>
       <c r="J21">
-        <v>0.06607997305071045</v>
+        <v>0.1978473060831565</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3038114491300377</v>
+        <v>0.3767419716047016</v>
       </c>
       <c r="M21">
-        <v>0.5842059293077142</v>
+        <v>0.3146014646364108</v>
       </c>
       <c r="N21">
-        <v>0.8231929399988474</v>
+        <v>1.347701660566315</v>
       </c>
       <c r="O21">
-        <v>1.516346353914969</v>
+        <v>2.529930845963065</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.340231472069433</v>
+        <v>1.290785195295712</v>
       </c>
       <c r="C22">
-        <v>0.474346831874783</v>
+        <v>0.2727010680510489</v>
       </c>
       <c r="D22">
-        <v>0.1215141177459884</v>
+        <v>0.2261123988985716</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6896818999484537</v>
+        <v>1.139988797563689</v>
       </c>
       <c r="G22">
-        <v>0.4577522303999615</v>
+        <v>0.5824541511959751</v>
       </c>
       <c r="H22">
-        <v>0.3121979139794178</v>
+        <v>0.693496917859278</v>
       </c>
       <c r="I22">
-        <v>0.2580025130940093</v>
+        <v>0.6670674668597876</v>
       </c>
       <c r="J22">
-        <v>0.06433812208482115</v>
+        <v>0.1968408793294176</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3207608353641405</v>
+        <v>0.3803113140340884</v>
       </c>
       <c r="M22">
-        <v>0.6262771717201403</v>
+        <v>0.3265866618238746</v>
       </c>
       <c r="N22">
-        <v>0.819574049375376</v>
+        <v>1.344127177632302</v>
       </c>
       <c r="O22">
-        <v>1.574765104966673</v>
+        <v>2.530097734117675</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.218597903409034</v>
+        <v>1.254211635266813</v>
       </c>
       <c r="C23">
-        <v>0.4616897832847258</v>
+        <v>0.268561382270974</v>
       </c>
       <c r="D23">
-        <v>0.119326318972206</v>
+        <v>0.2258918466249469</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6762944509744813</v>
+        <v>1.139762769592053</v>
       </c>
       <c r="G23">
-        <v>0.4462051941432463</v>
+        <v>0.5815224491281441</v>
       </c>
       <c r="H23">
-        <v>0.308915291459968</v>
+        <v>0.6943896371213043</v>
       </c>
       <c r="I23">
-        <v>0.2577549527488543</v>
+        <v>0.6691251600595542</v>
       </c>
       <c r="J23">
-        <v>0.06526203129725472</v>
+        <v>0.1973742311622302</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3116938549374879</v>
+        <v>0.378396845315379</v>
       </c>
       <c r="M23">
-        <v>0.6038065302807567</v>
+        <v>0.3201861181302945</v>
       </c>
       <c r="N23">
-        <v>0.8214126215858357</v>
+        <v>1.345999077951063</v>
       </c>
       <c r="O23">
-        <v>1.543280433989821</v>
+        <v>2.529897398312869</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.758945724277055</v>
+        <v>1.11569982115833</v>
       </c>
       <c r="C24">
-        <v>0.4137600749128865</v>
+        <v>0.252811254349524</v>
       </c>
       <c r="D24">
-        <v>0.1112340243578913</v>
+        <v>0.2251742597730981</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6280789528868453</v>
+        <v>1.13991705683916</v>
       </c>
       <c r="G24">
-        <v>0.4044335293430095</v>
+        <v>0.5786454006241968</v>
       </c>
       <c r="H24">
-        <v>0.2976018430034344</v>
+        <v>0.6982862348051668</v>
       </c>
       <c r="I24">
-        <v>0.2582362570184031</v>
+        <v>0.6775252822367683</v>
       </c>
       <c r="J24">
-        <v>0.06888638729695096</v>
+        <v>0.1994777160009011</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2777943279526482</v>
+        <v>0.3713543869510545</v>
       </c>
       <c r="M24">
-        <v>0.51904040636893</v>
+        <v>0.2960307419378978</v>
       </c>
       <c r="N24">
-        <v>0.8303696868522508</v>
+        <v>1.353877471649902</v>
       </c>
       <c r="O24">
-        <v>1.430521600576981</v>
+        <v>2.53158360466324</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.26468017501935</v>
+        <v>0.9663634128160652</v>
       </c>
       <c r="C25">
-        <v>0.362025408345616</v>
+        <v>0.2356754605470286</v>
       </c>
       <c r="D25">
-        <v>0.1028911674272024</v>
+        <v>0.224653785223488</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5808825722944917</v>
+        <v>1.142245952743629</v>
       </c>
       <c r="G25">
-        <v>0.3631147074416532</v>
+        <v>0.5769336814260555</v>
       </c>
       <c r="H25">
-        <v>0.2875880181118333</v>
+        <v>0.7035931241283606</v>
       </c>
       <c r="I25">
-        <v>0.2615366357758582</v>
+        <v>0.6878824644085597</v>
       </c>
       <c r="J25">
-        <v>0.07305647214188937</v>
+        <v>0.2019255788401306</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2420707737636576</v>
+        <v>0.3642081844000558</v>
       </c>
       <c r="M25">
-        <v>0.4281894890730626</v>
+        <v>0.2701696028258667</v>
       </c>
       <c r="N25">
-        <v>0.8440042212519216</v>
+        <v>1.364066605360158</v>
       </c>
       <c r="O25">
-        <v>1.321369526469027</v>
+        <v>2.538629461268414</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_178/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_178/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8565037349179647</v>
+        <v>1.901423501437847</v>
       </c>
       <c r="C2">
-        <v>0.2229358539446622</v>
+        <v>0.3238504348926625</v>
       </c>
       <c r="D2">
-        <v>0.2244905153702703</v>
+        <v>0.09705274940091613</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.145823997902674</v>
+        <v>0.5497919912031008</v>
       </c>
       <c r="G2">
-        <v>0.5768687689673087</v>
+        <v>0.3354789250290082</v>
       </c>
       <c r="H2">
-        <v>0.7084526726602576</v>
+        <v>0.2819083087928149</v>
       </c>
       <c r="I2">
-        <v>0.6966241759819667</v>
+        <v>0.2661242025408335</v>
       </c>
       <c r="J2">
-        <v>0.2038826977212298</v>
+        <v>0.07634515753257398</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3593375116489455</v>
+        <v>0.2163948883727684</v>
       </c>
       <c r="M2">
-        <v>0.2513020702240922</v>
+        <v>0.3616543383345245</v>
       </c>
       <c r="N2">
-        <v>1.373030149162062</v>
+        <v>0.8571934035852138</v>
       </c>
       <c r="O2">
-        <v>2.548315283167838</v>
+        <v>1.250425889550627</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7821304483655354</v>
+        <v>1.655361866971134</v>
       </c>
       <c r="C3">
-        <v>0.214227664950613</v>
+        <v>0.2979038322990135</v>
       </c>
       <c r="D3">
-        <v>0.2245180620644192</v>
+        <v>0.09327306437367611</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.149413113869535</v>
+        <v>0.5307823630876882</v>
       </c>
       <c r="G3">
-        <v>0.5775698648004237</v>
+        <v>0.3182897237416427</v>
       </c>
       <c r="H3">
-        <v>0.7123414329255056</v>
+        <v>0.2790275203271477</v>
       </c>
       <c r="I3">
-        <v>0.7032449779789083</v>
+        <v>0.2704696867380001</v>
       </c>
       <c r="J3">
-        <v>0.2053060457209499</v>
+        <v>0.07870727525168641</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3562826254698521</v>
+        <v>0.1993405443581509</v>
       </c>
       <c r="M3">
-        <v>0.2386276408061363</v>
+        <v>0.3167211363661835</v>
       </c>
       <c r="N3">
-        <v>1.380020107007745</v>
+        <v>0.8679730729861603</v>
       </c>
       <c r="O3">
-        <v>2.557686944664198</v>
+        <v>1.207619957978281</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7365120258808133</v>
+        <v>1.504251252421426</v>
       </c>
       <c r="C4">
-        <v>0.2088448940521772</v>
+        <v>0.2819288325459155</v>
       </c>
       <c r="D4">
-        <v>0.2246034941234001</v>
+        <v>0.09103571874933891</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.152191864381052</v>
+        <v>0.5200578664897506</v>
       </c>
       <c r="G4">
-        <v>0.5783677391285522</v>
+        <v>0.3084333705796709</v>
       </c>
       <c r="H4">
-        <v>0.715023352509256</v>
+        <v>0.2777090964806987</v>
       </c>
       <c r="I4">
-        <v>0.7076538591183521</v>
+        <v>0.2737135248063112</v>
       </c>
       <c r="J4">
-        <v>0.2062279712715527</v>
+        <v>0.08022249018461336</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3545290421768144</v>
+        <v>0.1890263408067483</v>
       </c>
       <c r="M4">
-        <v>0.2309023543659094</v>
+        <v>0.2891906765938188</v>
       </c>
       <c r="N4">
-        <v>1.384764739322243</v>
+        <v>0.8754616164302504</v>
       </c>
       <c r="O4">
-        <v>2.564826784487551</v>
+        <v>1.183750110218853</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7179355350510264</v>
+        <v>1.442654386968854</v>
       </c>
       <c r="C5">
-        <v>0.2066425043104374</v>
+        <v>0.2754071092234227</v>
       </c>
       <c r="D5">
-        <v>0.2246555967020498</v>
+        <v>0.09014441373949467</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.153468965172628</v>
+        <v>0.5159161005162005</v>
       </c>
       <c r="G5">
-        <v>0.5787852742636375</v>
+        <v>0.3045836419713268</v>
       </c>
       <c r="H5">
-        <v>0.7161903214237313</v>
+        <v>0.2772812360649155</v>
       </c>
       <c r="I5">
-        <v>0.7095369546016563</v>
+        <v>0.2751753023610632</v>
       </c>
       <c r="J5">
-        <v>0.2066157481423536</v>
+        <v>0.08085612601651881</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3538452965279859</v>
+        <v>0.1848609090756668</v>
       </c>
       <c r="M5">
-        <v>0.2277688282069619</v>
+        <v>0.2779840432529497</v>
       </c>
       <c r="N5">
-        <v>1.386812272387232</v>
+        <v>0.8787265248986245</v>
       </c>
       <c r="O5">
-        <v>2.568084939028353</v>
+        <v>1.174603309415005</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7148517770191916</v>
+        <v>1.432424872938697</v>
       </c>
       <c r="C6">
-        <v>0.2062762684131911</v>
+        <v>0.2743234484360784</v>
       </c>
       <c r="D6">
-        <v>0.2246652941981964</v>
+        <v>0.08999763189304133</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.153689772805379</v>
+        <v>0.5152418912828267</v>
       </c>
       <c r="G6">
-        <v>0.5788601863537366</v>
+        <v>0.3039542258317738</v>
       </c>
       <c r="H6">
-        <v>0.7163885715514908</v>
+        <v>0.2772166886994825</v>
       </c>
       <c r="I6">
-        <v>0.7098548625318273</v>
+        <v>0.2754263392283747</v>
       </c>
       <c r="J6">
-        <v>0.2066808686355173</v>
+        <v>0.08096231365739648</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3537336287934494</v>
+        <v>0.1841714663288627</v>
       </c>
       <c r="M6">
-        <v>0.2272493984082757</v>
+        <v>0.2761238597222757</v>
       </c>
       <c r="N6">
-        <v>1.387159158511707</v>
+        <v>0.8792813866858893</v>
       </c>
       <c r="O6">
-        <v>2.568647014017003</v>
+        <v>1.173118789313577</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7362614405733723</v>
+        <v>1.503420622837325</v>
       </c>
       <c r="C7">
-        <v>0.2088152275402848</v>
+        <v>0.2818409270135191</v>
       </c>
       <c r="D7">
-        <v>0.2246041267187806</v>
+        <v>0.09102361626806044</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.152208501581164</v>
+        <v>0.5200010963141466</v>
       </c>
       <c r="G7">
-        <v>0.5783729960375652</v>
+        <v>0.3083807875678772</v>
       </c>
       <c r="H7">
-        <v>0.7150387906616942</v>
+        <v>0.2777028881821835</v>
       </c>
       <c r="I7">
-        <v>0.7076789051824264</v>
+        <v>0.2737326787566019</v>
       </c>
       <c r="J7">
-        <v>0.2062331520106495</v>
+        <v>0.08023097031141679</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3545196958273493</v>
+        <v>0.1889700141112485</v>
       </c>
       <c r="M7">
-        <v>0.2308600350718919</v>
+        <v>0.2890394936222904</v>
       </c>
       <c r="N7">
-        <v>1.384791890983806</v>
+        <v>0.8755047916332117</v>
       </c>
       <c r="O7">
-        <v>2.564869313330036</v>
+        <v>1.183624437589188</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8308509606938799</v>
+        <v>1.816580261686113</v>
       </c>
       <c r="C8">
-        <v>0.2199408178607314</v>
+        <v>0.314912604676536</v>
       </c>
       <c r="D8">
-        <v>0.2244858274229102</v>
+        <v>0.09573187243432812</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.146942264709971</v>
+        <v>0.5430348522976161</v>
       </c>
       <c r="G8">
-        <v>0.5770342574707072</v>
+        <v>0.329401905902742</v>
       </c>
       <c r="H8">
-        <v>0.709732505314534</v>
+        <v>0.2808191674845162</v>
       </c>
       <c r="I8">
-        <v>0.698835708946234</v>
+        <v>0.2675000482328187</v>
       </c>
       <c r="J8">
-        <v>0.2043635203763339</v>
+        <v>0.07714606945109193</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3582589234073978</v>
+        <v>0.2104807730122218</v>
       </c>
       <c r="M8">
-        <v>0.2469202955019725</v>
+        <v>0.3461476174554434</v>
       </c>
       <c r="N8">
-        <v>1.375346435303086</v>
+        <v>0.8607263547073956</v>
       </c>
       <c r="O8">
-        <v>2.5512591610578</v>
+        <v>1.235149275998182</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.016655221112899</v>
+        <v>2.431028726534407</v>
       </c>
       <c r="C9">
-        <v>0.2414669846104971</v>
+        <v>0.3794618828015643</v>
       </c>
       <c r="D9">
-        <v>0.2247950695875574</v>
+        <v>0.1056524138068866</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.141172263458103</v>
+        <v>0.5961814161897365</v>
       </c>
       <c r="G9">
-        <v>0.577324493498395</v>
+        <v>0.3765725144667016</v>
       </c>
       <c r="H9">
-        <v>0.7016577814431315</v>
+        <v>0.2906859325143927</v>
       </c>
       <c r="I9">
-        <v>0.6842203671553939</v>
+        <v>0.2600746185460068</v>
       </c>
       <c r="J9">
-        <v>0.2010770297527076</v>
+        <v>0.07161748125667389</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3665549182766483</v>
+        <v>0.2540006424740966</v>
       </c>
       <c r="M9">
-        <v>0.2788544392372714</v>
+        <v>0.4587280450109787</v>
       </c>
       <c r="N9">
-        <v>1.360407855259375</v>
+        <v>0.838904879320701</v>
       </c>
       <c r="O9">
-        <v>2.535557535556848</v>
+        <v>1.356589556804181</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.15329128476418</v>
+        <v>2.883552122493256</v>
       </c>
       <c r="C10">
-        <v>0.2570979307828054</v>
+        <v>0.42676941043851</v>
       </c>
       <c r="D10">
-        <v>0.2253491633893674</v>
+        <v>0.1133987379968033</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.139705162915945</v>
+        <v>0.6407635494629105</v>
       </c>
       <c r="G10">
-        <v>0.5793167163773205</v>
+        <v>0.4154560175489763</v>
       </c>
       <c r="H10">
-        <v>0.6971418720759459</v>
+        <v>0.3004909123639408</v>
       </c>
       <c r="I10">
-        <v>0.6751433160612024</v>
+        <v>0.2578752111292566</v>
       </c>
       <c r="J10">
-        <v>0.198892741376862</v>
+        <v>0.06788185239516054</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3732306256530507</v>
+        <v>0.2869243568230644</v>
       </c>
       <c r="M10">
-        <v>0.3025721102257464</v>
+        <v>0.5419949652584535</v>
       </c>
       <c r="N10">
-        <v>1.35160632930635</v>
+        <v>0.8276127211503095</v>
       </c>
       <c r="O10">
-        <v>2.530714700192732</v>
+        <v>1.460080781209399</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.215464647482293</v>
+        <v>3.089864712921326</v>
       </c>
       <c r="C11">
-        <v>0.2641674543434362</v>
+        <v>0.4482824120028113</v>
       </c>
       <c r="D11">
-        <v>0.2256715844046866</v>
+        <v>0.1170311119282132</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.139638494165418</v>
+        <v>0.6624041775612284</v>
       </c>
       <c r="G11">
-        <v>0.5806097307501403</v>
+        <v>0.4342037273557224</v>
       </c>
       <c r="H11">
-        <v>0.6953941672856843</v>
+        <v>0.3055688187367167</v>
       </c>
       <c r="I11">
-        <v>0.6713743466166022</v>
+        <v>0.2576589314341611</v>
       </c>
       <c r="J11">
-        <v>0.1979487870947789</v>
+        <v>0.06625523287080659</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.376392303643911</v>
+        <v>0.3021401213939185</v>
       </c>
       <c r="M11">
-        <v>0.3134148805971648</v>
+        <v>0.5800418420645315</v>
       </c>
       <c r="N11">
-        <v>1.34807208651992</v>
+        <v>0.8235928925118827</v>
       </c>
       <c r="O11">
-        <v>2.529963994271128</v>
+        <v>1.510689075313735</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.239009109012329</v>
+        <v>3.168073671927459</v>
       </c>
       <c r="C12">
-        <v>0.2668384451109205</v>
+        <v>0.456429197005491</v>
       </c>
       <c r="D12">
-        <v>0.2258037381690414</v>
+        <v>0.1184229749854353</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.139699509543661</v>
+        <v>0.6708082802538087</v>
       </c>
       <c r="G12">
-        <v>0.5811549853246021</v>
+        <v>0.4414677187622544</v>
       </c>
       <c r="H12">
-        <v>0.6947763692590456</v>
+        <v>0.307586001461587</v>
       </c>
       <c r="I12">
-        <v>0.6699989230922831</v>
+        <v>0.2576966289225453</v>
       </c>
       <c r="J12">
-        <v>0.1975984621570195</v>
+        <v>0.06564991268083986</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3776073714457482</v>
+        <v>0.3079389824657568</v>
       </c>
       <c r="M12">
-        <v>0.3175281804295906</v>
+        <v>0.5944773601620525</v>
       </c>
       <c r="N12">
-        <v>1.346801111567657</v>
+        <v>0.8222391157493547</v>
       </c>
       <c r="O12">
-        <v>2.529888431416765</v>
+        <v>1.530398462125788</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.233938380898167</v>
+        <v>3.151226002633905</v>
       </c>
       <c r="C13">
-        <v>0.2662634728985154</v>
+        <v>0.4546746059720874</v>
       </c>
       <c r="D13">
-        <v>0.2257748299948616</v>
+        <v>0.1181224722054708</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.139682534241651</v>
+        <v>0.6689887724342469</v>
       </c>
       <c r="G13">
-        <v>0.5810350812999019</v>
+        <v>0.4398957621177004</v>
       </c>
       <c r="H13">
-        <v>0.6949074664314736</v>
+        <v>0.3071472806601321</v>
       </c>
       <c r="I13">
-        <v>0.6702928411382771</v>
+        <v>0.2576830781487054</v>
       </c>
       <c r="J13">
-        <v>0.197673594030185</v>
+        <v>0.06577980271604256</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3773448951284024</v>
+        <v>0.3066884049231646</v>
       </c>
       <c r="M13">
-        <v>0.316641984552561</v>
+        <v>0.5913671050165874</v>
       </c>
       <c r="N13">
-        <v>1.347071845214217</v>
+        <v>0.82252305494724</v>
       </c>
       <c r="O13">
-        <v>2.529895424741596</v>
+        <v>1.526128826212471</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.217401658898439</v>
+        <v>3.096297248114638</v>
       </c>
       <c r="C14">
-        <v>0.2643873213214079</v>
+        <v>0.4489526391861318</v>
       </c>
       <c r="D14">
-        <v>0.2256822554900566</v>
+        <v>0.1171452889503541</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.139641785831564</v>
+        <v>0.6630913128001765</v>
       </c>
       <c r="G14">
-        <v>0.5806534744783818</v>
+        <v>0.4347979675989109</v>
       </c>
       <c r="H14">
-        <v>0.6953424588451327</v>
+        <v>0.3057328512818884</v>
       </c>
       <c r="I14">
-        <v>0.6712601514602063</v>
+        <v>0.257659595445066</v>
       </c>
       <c r="J14">
-        <v>0.197919822840825</v>
+        <v>0.06620521837328974</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3764919119238357</v>
+        <v>0.3026164401357931</v>
       </c>
       <c r="M14">
-        <v>0.3137531381742846</v>
+        <v>0.5812288772102434</v>
       </c>
       <c r="N14">
-        <v>1.34796617345593</v>
+        <v>0.8234780942388937</v>
       </c>
       <c r="O14">
-        <v>2.529953595496352</v>
+        <v>1.512299430135101</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.207272488232206</v>
+        <v>3.062663118951548</v>
       </c>
       <c r="C15">
-        <v>0.2632373266568777</v>
+        <v>0.4454478475746271</v>
       </c>
       <c r="D15">
-        <v>0.2256268593145592</v>
+        <v>0.1165488899069658</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.139628056402181</v>
+        <v>0.6595066214478535</v>
       </c>
       <c r="G15">
-        <v>0.5804269725274054</v>
+        <v>0.4316972398220571</v>
       </c>
       <c r="H15">
-        <v>0.6956146348786518</v>
+        <v>0.304878920120359</v>
       </c>
       <c r="I15">
-        <v>0.6718594033883392</v>
+        <v>0.2576609958997444</v>
       </c>
       <c r="J15">
-        <v>0.1980715731924776</v>
+        <v>0.06646718973456878</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3759717499876558</v>
+        <v>0.3001271422685363</v>
       </c>
       <c r="M15">
-        <v>0.3119845879104872</v>
+        <v>0.5750226821140032</v>
       </c>
       <c r="N15">
-        <v>1.348522743572502</v>
+        <v>0.8240852594580446</v>
       </c>
       <c r="O15">
-        <v>2.530016403499957</v>
+        <v>1.50390067022164</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.149228306658188</v>
+        <v>2.870079745921146</v>
       </c>
       <c r="C16">
-        <v>0.2566350790698095</v>
+        <v>0.4253634480642177</v>
       </c>
       <c r="D16">
-        <v>0.2253295033098297</v>
+        <v>0.1131636013759092</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.13972159756058</v>
+        <v>0.6393778032701789</v>
       </c>
       <c r="G16">
-        <v>0.5792399975478304</v>
+        <v>0.4142531635230142</v>
       </c>
       <c r="H16">
-        <v>0.6972622524221492</v>
+        <v>0.3001719477336593</v>
       </c>
       <c r="I16">
-        <v>0.6753968760425693</v>
+        <v>0.2579057012363002</v>
       </c>
       <c r="J16">
-        <v>0.1989554295835929</v>
+        <v>0.06798963516496137</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3730265026436115</v>
+        <v>0.2859349966570051</v>
       </c>
       <c r="M16">
-        <v>0.3018645591527118</v>
+        <v>0.5395122173398619</v>
       </c>
       <c r="N16">
-        <v>1.351846736143784</v>
+        <v>0.8278985622132495</v>
       </c>
       <c r="O16">
-        <v>2.530792974075695</v>
+        <v>1.456847596249958</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.113623224586433</v>
+        <v>2.752065006260068</v>
       </c>
       <c r="C17">
-        <v>0.25257416751694</v>
+        <v>0.4130413371114798</v>
       </c>
       <c r="D17">
-        <v>0.2251650649441856</v>
+        <v>0.1111151586184249</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.13993275514138</v>
+        <v>0.6273872533625422</v>
       </c>
       <c r="G17">
-        <v>0.5786108847753866</v>
+        <v>0.4038316525761871</v>
       </c>
       <c r="H17">
-        <v>0.6983514918004659</v>
+        <v>0.2974463477834774</v>
       </c>
       <c r="I17">
-        <v>0.6776592660077263</v>
+        <v>0.2582614204822065</v>
       </c>
       <c r="J17">
-        <v>0.1995103626348311</v>
+        <v>0.06894236553013133</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3712515655159194</v>
+        <v>0.2772915354623535</v>
       </c>
       <c r="M17">
-        <v>0.2956697249292262</v>
+        <v>0.5177734236357168</v>
       </c>
       <c r="N17">
-        <v>1.354006059859884</v>
+        <v>0.8305294233416092</v>
       </c>
       <c r="O17">
-        <v>2.531641258883781</v>
+        <v>1.428912118235218</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.093145816897561</v>
+        <v>2.684228009031358</v>
       </c>
       <c r="C18">
-        <v>0.250234583320065</v>
+        <v>0.4059531977991924</v>
       </c>
       <c r="D18">
-        <v>0.2250771105109806</v>
+        <v>0.1099471164931245</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.140110757594819</v>
+        <v>0.6206177490718972</v>
       </c>
       <c r="G18">
-        <v>0.5782854375309938</v>
+        <v>0.3979364136025225</v>
       </c>
       <c r="H18">
-        <v>0.6990068567548775</v>
+        <v>0.2959364364821937</v>
       </c>
       <c r="I18">
-        <v>0.6789944389323033</v>
+        <v>0.2585394067991729</v>
       </c>
       <c r="J18">
-        <v>0.199834223356298</v>
+        <v>0.06949718558550222</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3702424302870071</v>
+        <v>0.2723423340807329</v>
       </c>
       <c r="M18">
-        <v>0.2921116728720321</v>
+        <v>0.5052854472413699</v>
       </c>
       <c r="N18">
-        <v>1.355292257761896</v>
+        <v>0.8321472716454039</v>
       </c>
       <c r="O18">
-        <v>2.532265877383281</v>
+        <v>1.413174217166898</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.086212860531646</v>
+        <v>2.661266273718184</v>
       </c>
       <c r="C19">
-        <v>0.2494417835979448</v>
+        <v>0.4035531013639684</v>
       </c>
       <c r="D19">
-        <v>0.2250484704657509</v>
+        <v>0.1095533615157223</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.140180742414913</v>
+        <v>0.6183471434763135</v>
       </c>
       <c r="G19">
-        <v>0.5781814985536187</v>
+        <v>0.3959570167293975</v>
       </c>
       <c r="H19">
-        <v>0.6992337114839131</v>
+        <v>0.2954349686955879</v>
       </c>
       <c r="I19">
-        <v>0.6794523288381562</v>
+        <v>0.258645930503107</v>
       </c>
       <c r="J19">
-        <v>0.1999446809334136</v>
+        <v>0.06968620646202561</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3699027789786982</v>
+        <v>0.2706703689569849</v>
       </c>
       <c r="M19">
-        <v>0.2909078549287258</v>
+        <v>0.5010598017189665</v>
       </c>
       <c r="N19">
-        <v>1.355735340785245</v>
+        <v>0.8327127893340887</v>
       </c>
       <c r="O19">
-        <v>2.532500846020838</v>
+        <v>1.407901176939987</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.117413283202097</v>
+        <v>2.764623414323864</v>
       </c>
       <c r="C20">
-        <v>0.2530068587838343</v>
+        <v>0.4143531189359067</v>
       </c>
       <c r="D20">
-        <v>0.2251818843258704</v>
+        <v>0.1113321611617337</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.13990442520268</v>
+        <v>0.6286504123332435</v>
       </c>
       <c r="G20">
-        <v>0.5786740874160188</v>
+        <v>0.4049307136626368</v>
       </c>
       <c r="H20">
-        <v>0.6982325536725824</v>
+        <v>0.2977304736766229</v>
       </c>
       <c r="I20">
-        <v>0.6774149215600396</v>
+        <v>0.2582159101587997</v>
       </c>
       <c r="J20">
-        <v>0.1994508050291923</v>
+        <v>0.06884023706482578</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3714392943773532</v>
+        <v>0.2782093210238941</v>
       </c>
       <c r="M20">
-        <v>0.2963286549342996</v>
+        <v>0.5200859139238361</v>
       </c>
       <c r="N20">
-        <v>1.353771621586169</v>
+        <v>0.8302384779274234</v>
       </c>
       <c r="O20">
-        <v>2.531536809731051</v>
+        <v>1.431851494550131</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.222258887773251</v>
+        <v>3.112428763666458</v>
       </c>
       <c r="C21">
-        <v>0.264938559065115</v>
+        <v>0.4506333006478087</v>
       </c>
       <c r="D21">
-        <v>0.2257091743037734</v>
+        <v>0.1174318610790337</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.139651414493486</v>
+        <v>0.6648177470442889</v>
       </c>
       <c r="G21">
-        <v>0.5807640521591395</v>
+        <v>0.4362907434644825</v>
       </c>
       <c r="H21">
-        <v>0.6952134968973951</v>
+        <v>0.3061456991398899</v>
       </c>
       <c r="I21">
-        <v>0.6709746230163667</v>
+        <v>0.2576631907280706</v>
       </c>
       <c r="J21">
-        <v>0.1978473060831565</v>
+        <v>0.06607997305067581</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3767419716047016</v>
+        <v>0.3038114491299666</v>
       </c>
       <c r="M21">
-        <v>0.3146014646364108</v>
+        <v>0.5842059293077355</v>
       </c>
       <c r="N21">
-        <v>1.347701660566315</v>
+        <v>0.8231929399988474</v>
       </c>
       <c r="O21">
-        <v>2.529930845963065</v>
+        <v>1.51634635391494</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.290785195295712</v>
+        <v>3.340231472069718</v>
       </c>
       <c r="C22">
-        <v>0.2727010680510489</v>
+        <v>0.4743468318750388</v>
       </c>
       <c r="D22">
-        <v>0.2261123988985716</v>
+        <v>0.1215141177460595</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.139988797563689</v>
+        <v>0.6896818999484537</v>
       </c>
       <c r="G22">
-        <v>0.5824541511959751</v>
+        <v>0.4577522303998904</v>
       </c>
       <c r="H22">
-        <v>0.693496917859278</v>
+        <v>0.3121979139795314</v>
       </c>
       <c r="I22">
-        <v>0.6670674668597876</v>
+        <v>0.2580025130940236</v>
       </c>
       <c r="J22">
-        <v>0.1968408793294176</v>
+        <v>0.06433812208475453</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3803113140340884</v>
+        <v>0.3207608353640978</v>
       </c>
       <c r="M22">
-        <v>0.3265866618238746</v>
+        <v>0.6262771717201403</v>
       </c>
       <c r="N22">
-        <v>1.344127177632302</v>
+        <v>0.819574049375376</v>
       </c>
       <c r="O22">
-        <v>2.530097734117675</v>
+        <v>1.574765104966616</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.254211635266813</v>
+        <v>3.218597903409147</v>
       </c>
       <c r="C23">
-        <v>0.268561382270974</v>
+        <v>0.4616897832849531</v>
       </c>
       <c r="D23">
-        <v>0.2258918466249469</v>
+        <v>0.1193263189720923</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.139762769592053</v>
+        <v>0.6762944509744528</v>
       </c>
       <c r="G23">
-        <v>0.5815224491281441</v>
+        <v>0.4462051941432321</v>
       </c>
       <c r="H23">
-        <v>0.6943896371213043</v>
+        <v>0.3089152914600817</v>
       </c>
       <c r="I23">
-        <v>0.6691251600595542</v>
+        <v>0.2577549527488507</v>
       </c>
       <c r="J23">
-        <v>0.1973742311622302</v>
+        <v>0.06526203129728669</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.378396845315379</v>
+        <v>0.3116938549374453</v>
       </c>
       <c r="M23">
-        <v>0.3201861181302945</v>
+        <v>0.6038065302807567</v>
       </c>
       <c r="N23">
-        <v>1.345999077951063</v>
+        <v>0.8214126215858215</v>
       </c>
       <c r="O23">
-        <v>2.529897398312869</v>
+        <v>1.543280433989793</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.11569982115833</v>
+        <v>2.758945724276941</v>
       </c>
       <c r="C24">
-        <v>0.252811254349524</v>
+        <v>0.4137600749123749</v>
       </c>
       <c r="D24">
-        <v>0.2251742597730981</v>
+        <v>0.1112340243580334</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.13991705683916</v>
+        <v>0.6280789528868453</v>
       </c>
       <c r="G24">
-        <v>0.5786454006241968</v>
+        <v>0.4044335293430379</v>
       </c>
       <c r="H24">
-        <v>0.6982862348051668</v>
+        <v>0.297601843003406</v>
       </c>
       <c r="I24">
-        <v>0.6775252822367683</v>
+        <v>0.2582362570183854</v>
       </c>
       <c r="J24">
-        <v>0.1994777160009011</v>
+        <v>0.0688863872970038</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3713543869510545</v>
+        <v>0.2777943279526482</v>
       </c>
       <c r="M24">
-        <v>0.2960307419378978</v>
+        <v>0.5190404063689371</v>
       </c>
       <c r="N24">
-        <v>1.353877471649902</v>
+        <v>0.8303696868522579</v>
       </c>
       <c r="O24">
-        <v>2.53158360466324</v>
+        <v>1.430521600576895</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9663634128160652</v>
+        <v>2.264680175019464</v>
       </c>
       <c r="C25">
-        <v>0.2356754605470286</v>
+        <v>0.362025408346085</v>
       </c>
       <c r="D25">
-        <v>0.224653785223488</v>
+        <v>0.102891167427245</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.142245952743629</v>
+        <v>0.5808825722944988</v>
       </c>
       <c r="G25">
-        <v>0.5769336814260555</v>
+        <v>0.3631147074416674</v>
       </c>
       <c r="H25">
-        <v>0.7035931241283606</v>
+        <v>0.2875880181118333</v>
       </c>
       <c r="I25">
-        <v>0.6878824644085597</v>
+        <v>0.2615366357758582</v>
       </c>
       <c r="J25">
-        <v>0.2019255788401306</v>
+        <v>0.07305647214188449</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3642081844000558</v>
+        <v>0.2420707737636434</v>
       </c>
       <c r="M25">
-        <v>0.2701696028258667</v>
+        <v>0.4281894890730626</v>
       </c>
       <c r="N25">
-        <v>1.364066605360158</v>
+        <v>0.8440042212519856</v>
       </c>
       <c r="O25">
-        <v>2.538629461268414</v>
+        <v>1.321369526468942</v>
       </c>
     </row>
   </sheetData>
